--- a/public/templates/template_guru.xlsx
+++ b/public/templates/template_guru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridzimeko\Documents\Projects\Template Jadwal Azmania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridzimeko\Documents\Projects\jadwal-azmania\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826F93C-9149-414B-8C6D-49D1B4551B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D97D9A-CB96-4EA0-AF46-015A35F8A2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B6CCB068-24C6-409C-8CDA-B41A8E75B8E4}"/>
+    <workbookView xWindow="5250" yWindow="1620" windowWidth="15240" windowHeight="9300" xr2:uid="{B6CCB068-24C6-409C-8CDA-B41A8E75B8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>NIP</t>
+    <t>Nama Guru</t>
   </si>
   <si>
-    <t>Nama Guru</t>
+    <t>Kode Guru</t>
   </si>
 </sst>
 </file>
@@ -92,7 +91,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -140,7 +139,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E328BF0-7A54-46D8-BB5F-EA246AF29DCB}" name="Table1" displayName="Table1" ref="A1:B14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B14" xr:uid="{6E328BF0-7A54-46D8-BB5F-EA246AF29DCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8C279FA-796E-456D-991D-0FE33214A928}" name="NIP" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D8C279FA-796E-456D-991D-0FE33214A928}" name="Kode Guru" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{03578CE0-36C4-45AB-967D-2B51228DC221}" name="Nama Guru"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -447,7 +446,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A2:B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +458,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>

--- a/public/templates/template_guru.xlsx
+++ b/public/templates/template_guru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridzimeko\Documents\Projects\jadwal-azmania\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D97D9A-CB96-4EA0-AF46-015A35F8A2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88880B5-9DDB-4652-8D8B-5F7556FFD3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1620" windowWidth="15240" windowHeight="9300" xr2:uid="{B6CCB068-24C6-409C-8CDA-B41A8E75B8E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B6CCB068-24C6-409C-8CDA-B41A8E75B8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nama Guru</t>
   </si>
   <si>
     <t>Kode Guru</t>
+  </si>
+  <si>
+    <t>Warna</t>
   </si>
 </sst>
 </file>
@@ -446,14 +449,14 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -463,7 +466,9 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
